--- a/Documentation/GameTestCases (1).xlsx
+++ b/Documentation/GameTestCases (1).xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="1250" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
   <si>
     <t>Feature</t>
   </si>
@@ -240,8 +245,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -585,29 +590,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="65" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -627,7 +632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -644,7 +649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>7</v>
       </c>
@@ -655,7 +660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>12</v>
       </c>
@@ -666,7 +671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>8</v>
       </c>
@@ -677,7 +682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>13</v>
       </c>
@@ -688,7 +693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>9</v>
       </c>
@@ -699,7 +704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -710,7 +715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>16</v>
       </c>
@@ -721,7 +726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -738,7 +743,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>22</v>
       </c>
@@ -749,7 +754,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>25</v>
       </c>
@@ -760,7 +765,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>26</v>
       </c>
@@ -771,7 +776,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>27</v>
       </c>
@@ -782,7 +787,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>28</v>
       </c>
@@ -793,7 +798,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -804,7 +809,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>16</v>
       </c>
@@ -815,7 +820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -832,7 +837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>32</v>
       </c>
@@ -843,23 +848,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>51</v>
       </c>
       <c r="D22" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>53</v>
       </c>
       <c r="D23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>39</v>
       </c>
@@ -870,7 +881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>35</v>
       </c>
@@ -881,7 +892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>37</v>
       </c>
@@ -892,55 +903,73 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>49</v>
       </c>
       <c r="D27" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>41</v>
       </c>
       <c r="D28" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>42</v>
       </c>
       <c r="D29" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>43</v>
       </c>
       <c r="D30" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>44</v>
       </c>
       <c r="D31" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>45</v>
       </c>
       <c r="D32" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -957,7 +986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>57</v>
       </c>
@@ -968,7 +997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>59</v>
       </c>
@@ -979,7 +1008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>61</v>
       </c>
@@ -990,7 +1019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>63</v>
       </c>
@@ -1001,7 +1030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>65</v>
       </c>
@@ -1012,7 +1041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>69</v>
       </c>
@@ -1023,7 +1052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>67</v>
       </c>
@@ -1040,15 +1069,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002F3B64CF3F87534C89394D192F37FE03" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bc92f62612f157ce92826da6fac2f568">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1a853a03-70b7-4e88-b9d6-862a6d0d513b" xmlns:ns4="006257e6-8004-434d-9d5c-8648ed86a46d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53f9340ff9bd35e08117073a0c9a3ff6" ns3:_="" ns4:_="">
     <xsd:import namespace="1a853a03-70b7-4e88-b9d6-862a6d0d513b"/>
@@ -1271,6 +1291,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1278,14 +1307,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB8A67A2-5DDB-4C40-88B1-8FE14C708844}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9E9AF1B-1443-4248-BC04-1FB939548151}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1304,16 +1325,24 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB8A67A2-5DDB-4C40-88B1-8FE14C708844}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A76F575D-EE7F-4E8F-A345-86B9CCF1C624}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="006257e6-8004-434d-9d5c-8648ed86a46d"/>
     <ds:schemaRef ds:uri="1a853a03-70b7-4e88-b9d6-862a6d0d513b"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>

--- a/Documentation/GameTestCases (1).xlsx
+++ b/Documentation/GameTestCases (1).xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="1940" yWindow="1250" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="75">
   <si>
     <t>Feature</t>
   </si>
@@ -240,13 +235,22 @@
   </si>
   <si>
     <t>pong game</t>
+  </si>
+  <si>
+    <t>Main Menu Button Hover</t>
+  </si>
+  <si>
+    <t>Main Menu Button Press</t>
+  </si>
+  <si>
+    <t>highlights grey on mouse hold and redirects player to main menu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -590,29 +594,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="65" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -632,7 +636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -649,7 +653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="C3" t="s">
         <v>7</v>
       </c>
@@ -660,7 +664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="C4" t="s">
         <v>12</v>
       </c>
@@ -671,7 +675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="C5" t="s">
         <v>8</v>
       </c>
@@ -682,7 +686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="C6" t="s">
         <v>13</v>
       </c>
@@ -693,7 +697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="C7" t="s">
         <v>9</v>
       </c>
@@ -704,7 +708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -715,7 +719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="C9" t="s">
         <v>16</v>
       </c>
@@ -726,7 +730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>1</v>
       </c>
@@ -743,7 +747,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="C12" t="s">
         <v>22</v>
       </c>
@@ -754,7 +758,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="C13" t="s">
         <v>25</v>
       </c>
@@ -765,7 +769,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="C14" t="s">
         <v>26</v>
       </c>
@@ -776,7 +780,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="C15" t="s">
         <v>27</v>
       </c>
@@ -787,7 +791,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="C16" t="s">
         <v>28</v>
       </c>
@@ -798,7 +802,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -809,7 +813,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="C18" t="s">
         <v>16</v>
       </c>
@@ -820,7 +824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>2</v>
       </c>
@@ -837,7 +841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="C21" t="s">
         <v>32</v>
       </c>
@@ -848,29 +852,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="C22" t="s">
         <v>51</v>
       </c>
       <c r="D22" t="s">
         <v>52</v>
       </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5">
       <c r="C23" t="s">
         <v>53</v>
       </c>
       <c r="D23" t="s">
         <v>54</v>
       </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5">
       <c r="C24" t="s">
         <v>39</v>
       </c>
@@ -881,7 +879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="C25" t="s">
         <v>35</v>
       </c>
@@ -892,7 +890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="C26" t="s">
         <v>37</v>
       </c>
@@ -903,73 +901,55 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="C27" t="s">
         <v>49</v>
       </c>
       <c r="D27" t="s">
         <v>50</v>
       </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5">
       <c r="C28" t="s">
         <v>41</v>
       </c>
       <c r="D28" t="s">
         <v>40</v>
       </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5">
       <c r="C29" t="s">
         <v>42</v>
       </c>
       <c r="D29" t="s">
         <v>46</v>
       </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:5">
       <c r="C30" t="s">
         <v>43</v>
       </c>
       <c r="D30" t="s">
         <v>48</v>
       </c>
-      <c r="E30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5">
       <c r="C31" t="s">
         <v>44</v>
       </c>
       <c r="D31" t="s">
         <v>46</v>
       </c>
-      <c r="E31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:5">
       <c r="C32" t="s">
         <v>45</v>
       </c>
       <c r="D32" t="s">
         <v>47</v>
       </c>
-      <c r="E32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>2</v>
       </c>
@@ -986,7 +966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="C35" t="s">
         <v>57</v>
       </c>
@@ -997,7 +977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="C36" t="s">
         <v>59</v>
       </c>
@@ -1008,7 +988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="C37" t="s">
         <v>61</v>
       </c>
@@ -1019,7 +999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="C38" t="s">
         <v>63</v>
       </c>
@@ -1030,7 +1010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="C39" t="s">
         <v>65</v>
       </c>
@@ -1041,7 +1021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="C40" t="s">
         <v>69</v>
       </c>
@@ -1052,7 +1032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="C41" t="s">
         <v>67</v>
       </c>
@@ -1061,6 +1041,25 @@
       </c>
       <c r="E41" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="C42" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="C43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1069,6 +1068,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002F3B64CF3F87534C89394D192F37FE03" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bc92f62612f157ce92826da6fac2f568">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1a853a03-70b7-4e88-b9d6-862a6d0d513b" xmlns:ns4="006257e6-8004-434d-9d5c-8648ed86a46d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53f9340ff9bd35e08117073a0c9a3ff6" ns3:_="" ns4:_="">
     <xsd:import namespace="1a853a03-70b7-4e88-b9d6-862a6d0d513b"/>
@@ -1291,15 +1299,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1307,6 +1306,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB8A67A2-5DDB-4C40-88B1-8FE14C708844}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9E9AF1B-1443-4248-BC04-1FB939548151}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1325,24 +1332,16 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB8A67A2-5DDB-4C40-88B1-8FE14C708844}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A76F575D-EE7F-4E8F-A345-86B9CCF1C624}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="006257e6-8004-434d-9d5c-8648ed86a46d"/>
     <ds:schemaRef ds:uri="1a853a03-70b7-4e88-b9d6-862a6d0d513b"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
